--- a/filer/Teknisk_dokumentasjon.xlsx
+++ b/filer/Teknisk_dokumentasjon.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aarsoppgave\filer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ole\Git\Aarsoppgave\filer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541E863E-4379-4FFC-8E66-641B9093C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA876F7E-EF25-48CF-98FA-42CFF0564322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A547AE4E-7C8C-43F3-A4C1-5DF1D7120F75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A547AE4E-7C8C-43F3-A4C1-5DF1D7120F75}"/>
   </bookViews>
   <sheets>
-    <sheet name="stasjonaer Debian Server" sheetId="1" r:id="rId1"/>
-    <sheet name="Raspberry Pi 4GB" sheetId="4" r:id="rId2"/>
-    <sheet name="Raspberry Pi 2GB" sheetId="3" r:id="rId3"/>
+    <sheet name="Raspberry Pi 4GB" sheetId="4" r:id="rId1"/>
+    <sheet name="Raspberry Pi 2GB" sheetId="3" r:id="rId2"/>
+    <sheet name="stasjonaer Debian Server" sheetId="1" r:id="rId3"/>
     <sheet name="Debian" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -471,25 +471,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01737DB3-F6CD-47B3-9CB4-1EC145F8EC50}">
-  <dimension ref="C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13163E59-A81C-4069-8E01-B0BDBC27088C}">
   <dimension ref="A3:B13"/>
   <sheetViews>
@@ -555,11 +536,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE6AAE-1665-4672-9A5B-36696FC5A122}">
   <dimension ref="A5:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -607,6 +588,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01737DB3-F6CD-47B3-9CB4-1EC145F8EC50}">
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
